--- a/Learning Progress Tracker/task/resources/data/TotalStudentScores.xlsx
+++ b/Learning Progress Tracker/task/resources/data/TotalStudentScores.xlsx
@@ -4,40 +4,89 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="10872"/>
+    <workbookView xWindow="288" yWindow="372" windowWidth="22692" windowHeight="10596"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TotalStudentScores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>spring</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Submissions</t>
+  </si>
+  <si>
+    <t>AvgGrade</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Points to Complete</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +94,329 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -62,19 +424,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:K13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:K13"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2" dataDxfId="10"/>
+    <tableColumn id="3" name="Column3" dataDxfId="9"/>
+    <tableColumn id="4" name="Column4" dataDxfId="8"/>
+    <tableColumn id="5" name="Column5" dataDxfId="7"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7" dataDxfId="6"/>
+    <tableColumn id="8" name="Column8" dataDxfId="5"/>
+    <tableColumn id="9" name="Column9" dataDxfId="4"/>
+    <tableColumn id="10" name="Column10" dataDxfId="3"/>
+    <tableColumn id="11" name="Column11" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,226 +1030,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>600</v>
+      </c>
+      <c r="H2" s="10">
+        <v>400</v>
+      </c>
+      <c r="I2" s="10">
+        <v>480</v>
+      </c>
+      <c r="J2" s="10">
+        <v>550</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <f>B4/G2</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="H4" s="9">
+        <f>C4/H2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="9">
+        <f>D4/I2</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J4" s="9">
+        <f>E4/J2</f>
+        <v>7.2727272727272727E-3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <f>B5/G2</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f>C5/H2</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I5" s="9">
+        <f>D5/I2</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <f>E5/J2</f>
+        <v>3.6363636363636364E-3</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G6" s="9">
+        <f>B6/G2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <f>C6/H2</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I6" s="9">
+        <f>D6/I2</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="J6" s="9">
+        <f>E6/J2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>5.7140000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1010</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <f>B7/G2</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H7" s="9">
+        <f>C7/H2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="9">
+        <f>D7/I2</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="J7" s="9">
+        <f>E7/J2</f>
+        <v>7.2727272727272727E-3</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1005</v>
-      </c>
-      <c r="B3">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1009</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1001</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1002</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1003</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1004</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="9">
+        <f>B8/G2</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H8" s="9">
+        <f>C8/H2</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f>D8/I2</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <f>E8/J2</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1006</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f>B9/G2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="9">
+        <f>C9/H2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f>D9/I2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <f>E9/J2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1007</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="9">
+        <f>B10/G2</f>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f>C10/H2</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f>D10/I2</f>
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <f>E10/J2</f>
+        <v>1.2727272727272728E-2</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1008</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
+      <c r="G11" s="9">
+        <f>B11/G2</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f>C11/H2</f>
+        <v>0.02</v>
+      </c>
+      <c r="I11" s="9">
+        <f>D11/I2</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <f>E11/J2</f>
+        <v>1.4545454545454545E-2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <f>B12/G2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f>C12/H2</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f>D12/I2</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <f>E12/J2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <f>B13/G2</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f>C13/H2</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f>D13/I2</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <f>E13/J2</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <f>COUNTIF(B4:B13,"&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <f>COUNTIF(C4:C13,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(D4:D13,"&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <f>COUNTIF(E4:E13,"&gt;0")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <f>COUNTIF(B4:B13,"&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:E15" si="0">COUNTIF(C4:C13,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B4:B13)</f>
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C4:C13)</f>
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(D4:D13)</f>
+        <v>54</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SUM(E4:E13)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B16/B15</f>
+        <v>6.3</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:E17" si="1">C16/C15</f>
+        <v>5.25</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857144</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>